--- a/Evaluation/3_AdaptationPlanning/Runtime.xlsx
+++ b/Evaluation/3_AdaptationPlanning/Runtime.xlsx
@@ -1432,6 +1432,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:trendline>
+            <c:name>Moving Mean (size 2) of Building Graphs</c:name>
             <c:spPr>
               <a:ln w="31750" cap="rnd">
                 <a:solidFill>
@@ -1519,6 +1520,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:trendline>
+            <c:name>Moving Mean (size 2) of Adaptation Calculation</c:name>
             <c:spPr>
               <a:ln w="31750" cap="rnd">
                 <a:solidFill>
@@ -1608,6 +1610,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:trendline>
+            <c:name>Moving Mean (size 2) of Adaptation Planning</c:name>
             <c:spPr>
               <a:ln w="31750" cap="rnd">
                 <a:solidFill>
@@ -3463,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
